--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>2.150125416465</v>
+        <v>3.619646725615556</v>
       </c>
       <c r="R2">
-        <v>19.351128748185</v>
+        <v>32.57682053054</v>
       </c>
       <c r="S2">
-        <v>0.03130964866766633</v>
+        <v>0.03196662992296818</v>
       </c>
       <c r="T2">
-        <v>0.03130964866766633</v>
+        <v>0.03196662992296818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>15.512391048395</v>
+        <v>23.63811205900834</v>
       </c>
       <c r="R3">
-        <v>139.611519435555</v>
+        <v>212.743008531075</v>
       </c>
       <c r="S3">
-        <v>0.2258879923940501</v>
+        <v>0.2087581572313437</v>
       </c>
       <c r="T3">
-        <v>0.2258879923940501</v>
+        <v>0.2087581572313438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>6.148370457191667</v>
+        <v>15.87769475030445</v>
       </c>
       <c r="R4">
-        <v>55.33533411472499</v>
+        <v>142.89925275274</v>
       </c>
       <c r="S4">
-        <v>0.0895312047470342</v>
+        <v>0.1402226323693294</v>
       </c>
       <c r="T4">
-        <v>0.0895312047470342</v>
+        <v>0.1402226323693294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.02334154188466667</v>
+        <v>0.6275929912694446</v>
       </c>
       <c r="R5">
-        <v>0.210073876962</v>
+        <v>5.648336921425001</v>
       </c>
       <c r="S5">
-        <v>0.0003398943476385941</v>
+        <v>0.005542538931267441</v>
       </c>
       <c r="T5">
-        <v>0.0003398943476385941</v>
+        <v>0.005542538931267441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>1.753674445705</v>
+        <v>1.937391203343556</v>
       </c>
       <c r="R6">
-        <v>15.783070011345</v>
+        <v>17.436520830092</v>
       </c>
       <c r="S6">
-        <v>0.02553661770240361</v>
+        <v>0.01710992047235364</v>
       </c>
       <c r="T6">
-        <v>0.02553661770240362</v>
+        <v>0.01710992047235365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
-        <v>12.65213813344834</v>
+        <v>12.65213813344833</v>
       </c>
       <c r="R7">
         <v>113.869243201035</v>
       </c>
       <c r="S7">
-        <v>0.1842376248471734</v>
+        <v>0.1117363787421647</v>
       </c>
       <c r="T7">
-        <v>0.1842376248471734</v>
+        <v>0.1117363787421648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>5.014702896369445</v>
+        <v>8.498427739072445</v>
       </c>
       <c r="R8">
-        <v>45.132326067325</v>
+        <v>76.485849651652</v>
       </c>
       <c r="S8">
-        <v>0.07302298956876309</v>
+        <v>0.07505320686117968</v>
       </c>
       <c r="T8">
-        <v>0.07302298956876309</v>
+        <v>0.07505320686117969</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.01903771064377778</v>
+        <v>0.3359148648294445</v>
       </c>
       <c r="R9">
-        <v>0.171339395794</v>
+        <v>3.023233783465</v>
       </c>
       <c r="S9">
-        <v>0.000277222913197946</v>
+        <v>0.002966606131376155</v>
       </c>
       <c r="T9">
-        <v>0.000277222913197946</v>
+        <v>0.002966606131376155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N10">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O10">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P10">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q10">
-        <v>1.042469269725</v>
+        <v>3.446530758481777</v>
       </c>
       <c r="R10">
-        <v>9.382223427525</v>
+        <v>31.018776826336</v>
       </c>
       <c r="S10">
-        <v>0.0151802059228668</v>
+        <v>0.03043776965714179</v>
       </c>
       <c r="T10">
-        <v>0.0151802059228668</v>
+        <v>0.0304377696571418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q11">
-        <v>7.521045444174999</v>
+        <v>22.50757779958666</v>
       </c>
       <c r="R11">
-        <v>67.689408997575</v>
+        <v>202.56820019628</v>
       </c>
       <c r="S11">
-        <v>0.1095197929699488</v>
+        <v>0.1987739314143827</v>
       </c>
       <c r="T11">
-        <v>0.1095197929699488</v>
+        <v>0.1987739314143827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N12">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q12">
-        <v>2.980982974958333</v>
+        <v>15.11831608964622</v>
       </c>
       <c r="R12">
-        <v>26.828846774625</v>
+        <v>136.064844806816</v>
       </c>
       <c r="S12">
-        <v>0.0434084118607783</v>
+        <v>0.1335162384981063</v>
       </c>
       <c r="T12">
-        <v>0.0434084118607783</v>
+        <v>0.1335162384981063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N13">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q13">
-        <v>0.01131693990333333</v>
+        <v>0.5975772533022222</v>
       </c>
       <c r="R13">
-        <v>0.10185245913</v>
+        <v>5.37819527972</v>
       </c>
       <c r="S13">
-        <v>0.0001647947648323743</v>
+        <v>0.005277457264409521</v>
       </c>
       <c r="T13">
-        <v>0.0001647947648323743</v>
+        <v>0.005277457264409522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N14">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O14">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P14">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q14">
-        <v>1.24883047718</v>
+        <v>0.3618666788128889</v>
       </c>
       <c r="R14">
-        <v>11.23947429462</v>
+        <v>3.256800109316</v>
       </c>
       <c r="S14">
-        <v>0.01818519198301677</v>
+        <v>0.00319579756808947</v>
       </c>
       <c r="T14">
-        <v>0.01818519198301677</v>
+        <v>0.003195797568089472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>123.860985</v>
       </c>
       <c r="O15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q15">
-        <v>9.009868246206667</v>
+        <v>2.363171257478333</v>
       </c>
       <c r="R15">
-        <v>81.08881421586</v>
+        <v>21.268541317305</v>
       </c>
       <c r="S15">
-        <v>0.1311996998735473</v>
+        <v>0.02087016406816841</v>
       </c>
       <c r="T15">
-        <v>0.1311996998735472</v>
+        <v>0.02087016406816842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N16">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q16">
-        <v>3.571081181188889</v>
+        <v>1.587339622355111</v>
       </c>
       <c r="R16">
-        <v>32.1397306307</v>
+        <v>14.286056601196</v>
       </c>
       <c r="S16">
-        <v>0.05200129085054191</v>
+        <v>0.0140184670262982</v>
       </c>
       <c r="T16">
-        <v>0.05200129085054191</v>
+        <v>0.0140184670262982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N17">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q17">
-        <v>0.01355717609155556</v>
+        <v>0.06274230846611112</v>
       </c>
       <c r="R17">
-        <v>0.122014584824</v>
+        <v>0.564680776195</v>
       </c>
       <c r="S17">
-        <v>0.0001974165865404066</v>
+        <v>0.0005541038414205478</v>
       </c>
       <c r="T17">
-        <v>0.0001974165865404065</v>
+        <v>0.0005541038414205479</v>
       </c>
     </row>
   </sheetData>
